--- a/assets/disciplinas/LOM3088.xlsx
+++ b/assets/disciplinas/LOM3088.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar as técnicas de caracterização e processamento de polímeros de forma que aluno seja capaz de compreender a importância de cada uma e relacioná-las com o papel desempenhado pelos polímeros na Engenharia de Materiais.</t>
+    <t>5840897 - Clodoaldo Saron</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840897 - Clodoaldo Saron</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1033242 - Fábio Herbst Florenzano</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Caracterização de Polímeros: Identificação de polímeros; Determinação da massa molar média de polímeros; Determinação das propriedades físicas; análise térmica de polímeros. Processamento de materiais poliméricos</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Testes simples: queima e densidade relativa; FTIR de polímeros; Princípios de Ressonância Magnética Nuclear aplicada a polímeros; Viscosimetria e Reologia; Cromatografia por Exclusão de Tamanho (SEC/GPC); Termogravimetria e Calorimetria Diferencial Exploratória (DSC) de polímeros; Análise Dinâmico – Mecânica (DMA). Índice de Fluidez. Moagem e moldagem de polímeros.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Experimentos desenvolvidos em laboratório didático; realização de relatórios para cada experimento.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética das notas obtidas nos relatórios. Será aprovado o aluno que obtiver nota final maior ou igual a 5,0.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Devido às características práticas da disciplina, não será oferecida recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>HARPER, C. A. Handbook of Plastics, Elastomers and Composites. New York: McGraw-Hill Inc, 1992S. V. CANEVAROLO Jr. Técnicas de Caracterização de Polímeros. São Paulo: Editora Artliber, 2005.MANRICH, S. Processamento de Termoplásticos. Editora Artliber, 2005. NAVARRO, R.F. Fundamentos de Reologia de Polímeros. Editora da Universidade de Caxias do Sul, 1997. MANO, E. B.; MENDES, L. C. Identificação de Plásticos, Borrachas e Fibras. Ed. Edgard Blücher, 2000. TURI, E. A. Thermal Characterization of Polymeric Materials. New York: Academic Press, 1981.NAVARRO, R.F. Fundamentos de Reologia de Polímeros. Editora da Universidade de Caxias do Sul, 1997.MANO, E. B.; MENDES, L. C. Identificação de Plásticos, Borrachas e Fibras. Ed. Edgard Blücher, 2000.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -494,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,56 +607,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -683,7 +677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -694,47 +688,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3088.xlsx
+++ b/assets/disciplinas/LOM3088.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar as técnicas de caracterização e processamento de polímeros de forma que aluno seja capaz de compreender a importância de cada uma e relacioná-las com o papel desempenhado pelos polímeros na Engenharia de Materiais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840897 - Clodoaldo Saron</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1033242 - Fábio Herbst Florenzano</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Caracterização de Polímeros: Identificação de polímeros; Determinação da massa molar média de polímeros; Determinação das propriedades físicas; análise térmica de polímeros. Processamento de materiais poliméricos</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>Testes simples: queima e densidade relativa; FTIR de polímeros; Princípios de Ressonância Magnética Nuclear aplicada a polímeros; Viscosimetria e Reologia; Cromatografia por Exclusão de Tamanho (SEC/GPC); Termogravimetria e Calorimetria Diferencial Exploratória (DSC) de polímeros; Análise Dinâmico – Mecânica (DMA). Índice de Fluidez. Moagem e moldagem de polímeros.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1033242 - Fábio Herbst Florenzano</t>
+    <t>Experimentos desenvolvidos em laboratório didático; realização de relatórios para cada experimento.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Experimentos desenvolvidos em laboratório didático; realização de relatórios para cada experimento.</t>
+    <t>Média aritmética das notas obtidas nos relatórios. Será aprovado o aluno que obtiver nota final maior ou igual a 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética das notas obtidas nos relatórios. Será aprovado o aluno que obtiver nota final maior ou igual a 5,0.</t>
+    <t>Devido às características práticas da disciplina, não será oferecida recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Devido às características práticas da disciplina, não será oferecida recuperação.</t>
+    <t>HARPER, C. A. Handbook of Plastics, Elastomers and Composites. New York: McGraw-Hill Inc, 1992S. V. CANEVAROLO Jr. Técnicas de Caracterização de Polímeros. São Paulo: Editora Artliber, 2005.MANRICH, S. Processamento de Termoplásticos. Editora Artliber, 2005. NAVARRO, R.F. Fundamentos de Reologia de Polímeros. Editora da Universidade de Caxias do Sul, 1997. MANO, E. B.; MENDES, L. C. Identificação de Plásticos, Borrachas e Fibras. Ed. Edgard Blücher, 2000. TURI, E. A. Thermal Characterization of Polymeric Materials. New York: Academic Press, 1981.NAVARRO, R.F. Fundamentos de Reologia de Polímeros. Editora da Universidade de Caxias do Sul, 1997.MANO, E. B.; MENDES, L. C. Identificação de Plásticos, Borrachas e Fibras. Ed. Edgard Blücher, 2000.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -482,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -607,62 +619,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -677,7 +683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -688,25 +694,47 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
